--- a/documentation/Gantt Charts/FinalGanttP3.xlsx
+++ b/documentation/Gantt Charts/FinalGanttP3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{002AE461-B373-4868-8325-70270DB15F7B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630DFC3F-DE52-4D6A-95D1-F33CFEDA87DA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -31,15 +31,9 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Go Over Requirements</t>
-  </si>
-  <si>
     <t>Brainstorm Project Ideas</t>
   </si>
   <si>
-    <t>Initial Design</t>
-  </si>
-  <si>
     <t>Learning Environment</t>
   </si>
   <si>
@@ -52,13 +46,34 @@
     <t>Improvement Design</t>
   </si>
   <si>
-    <t>Implenent Add-Ons</t>
-  </si>
-  <si>
-    <t>Final Testing</t>
-  </si>
-  <si>
-    <t>Presentation Prep</t>
+    <t>Go Over P3 Requirements</t>
+  </si>
+  <si>
+    <t>Initial P3 Design</t>
+  </si>
+  <si>
+    <t>Implenent P3 Add-Ons</t>
+  </si>
+  <si>
+    <t>Final P3 Testing</t>
+  </si>
+  <si>
+    <t>Presentation Prep P3</t>
+  </si>
+  <si>
+    <t>P4 Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4 Design </t>
+  </si>
+  <si>
+    <t>P4 Testing and Updates</t>
+  </si>
+  <si>
+    <t>Final P4 Code Polish</t>
+  </si>
+  <si>
+    <t>Presentation Prep P4</t>
   </si>
 </sst>
 </file>
@@ -130,7 +145,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33058202099737533"/>
+          <c:y val="0.13517716535433072"/>
+          <c:w val="0.61192497812773405"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -159,17 +184,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Go Over Requirements</c:v>
+                  <c:v>Go Over P3 Requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Brainstorm Project Ideas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Initial Design</c:v>
+                  <c:v>Initial P3 Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Learning Environment</c:v>
@@ -184,23 +209,41 @@
                   <c:v>Improvement Design</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Implenent Add-Ons</c:v>
+                  <c:v>Implenent P3 Add-Ons</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Final Testing</c:v>
+                  <c:v>Final P3 Testing</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Presentation Prep</c:v>
+                  <c:v>Presentation Prep P3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P4 Requirements</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P4 Design </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Coding and Implementation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P4 Testing and Updates</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Final P4 Code Polish</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Presentation Prep P4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43173</c:v>
                 </c:pt>
@@ -230,13 +273,31 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D26A-45D8-8903-320E529A1E5F}"/>
+              <c16:uniqueId val="{00000000-E729-4F65-BDE1-ED43C19B7E94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -244,39 +305,28 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Duration</c:v>
+            <c:v>Duration+Sheet1!$C$2:$C$17</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill flip="none" rotWithShape="1">
               <a:gsLst>
-                <a:gs pos="57000">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="37000">
-                  <a:schemeClr val="tx2"/>
-                </a:gs>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="50000"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="74000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="45000"/>
-                    <a:lumOff val="55000"/>
-                  </a:schemeClr>
+                <a:gs pos="58000">
+                  <a:srgbClr val="FF0000"/>
                 </a:gs>
-                <a:gs pos="83000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
+                <a:gs pos="23000">
+                  <a:srgbClr val="FFC000"/>
                 </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
+                <a:gs pos="98396">
+                  <a:srgbClr val="C00000"/>
+                </a:gs>
+                <a:gs pos="78000">
+                  <a:srgbClr val="FF0000"/>
                 </a:gs>
               </a:gsLst>
               <a:path path="circle">
@@ -284,25 +334,27 @@
               </a:path>
               <a:tileRect r="-100000" b="-100000"/>
             </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>Go Over Requirements</c:v>
+                  <c:v>Go Over P3 Requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Brainstorm Project Ideas</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Initial Design</c:v>
+                  <c:v>Initial P3 Design</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Learning Environment</c:v>
@@ -317,23 +369,41 @@
                   <c:v>Improvement Design</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Implenent Add-Ons</c:v>
+                  <c:v>Implenent P3 Add-Ons</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Final Testing</c:v>
+                  <c:v>Final P3 Testing</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Presentation Prep</c:v>
+                  <c:v>Presentation Prep P3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P4 Requirements</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>P4 Design </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Coding and Implementation</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>P4 Testing and Updates</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Final P4 Code Polish</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Presentation Prep P4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -363,13 +433,31 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D26A-45D8-8903-320E529A1E5F}"/>
+              <c16:uniqueId val="{00000002-E729-4F65-BDE1-ED43C19B7E94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -383,11 +471,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="662553216"/>
-        <c:axId val="662554528"/>
+        <c:axId val="424284592"/>
+        <c:axId val="424281968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="662553216"/>
+        <c:axId val="424284592"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -430,7 +518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662554528"/>
+        <c:crossAx val="424281968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -438,10 +526,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="662554528"/>
+        <c:axId val="424281968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43199"/>
+          <c:max val="43225"/>
           <c:min val="43173"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -491,7 +579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="662553216"/>
+        <c:crossAx val="424284592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -519,7 +607,12 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1092,22 +1185,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>269874</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9BC81A-7BF1-4675-AB9A-FF4A856BB2FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E952535-7A00-44C1-B508-02B773B23BE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,19 +1484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1414,9 +1507,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>43173</v>
@@ -1425,9 +1518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>43174</v>
@@ -1436,9 +1529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>43175</v>
@@ -1447,9 +1540,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>43178</v>
@@ -1458,9 +1551,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>43185</v>
@@ -1469,9 +1562,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>43192</v>
@@ -1480,9 +1573,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>43194</v>
@@ -1491,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1522,10 +1615,77 @@
       </c>
       <c r="C11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43201</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43206</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43208</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43212</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43220</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43222</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>